--- a/results/correct models/R4-computer-game1/compositions_inclusion_check.xlsx
+++ b/results/correct models/R4-computer-game1/compositions_inclusion_check.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,37 +507,37 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>No, Statement 1 cannot be inferred from Statement 2. The second statement makes no mention of how the boards are made up, more specifically, it does not mention if they are made up of cells or not.</t>
+          <t>No, Statement 1 cannot be inferred from Statement 2. The second statement talks about a game that emulates a board game scenario, but it does not contain any information on whether each board is made up of cells or not.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>No, Statement 1 cannot be implied from Statement 2. The second statement doesn't provide any information about the board being made up of cells.</t>
+          <t>No, Statement 1 cannot be implied from Statement 2. Statement 2 does not provide any information about the boards being made up of cells.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>No, Statement 1 cannot be determined from Statement 2. The second statement talks about the elements of a game but doesn't provide any specific information about "each board" being "made up of cells."</t>
+          <t>No, Statement 1 cannot be determined from Statement 2. Statement 2 doesn't provide any information about the boards being made up of cells.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>No, Statement 1 cannot be derived from Statement 2. Statement 2 mentions a board game scenario, but it does not specify that each board is made up of cells.</t>
+          <t>No, Statement 1 cannot be derived from Statement 2. The second statement does not provide any information about a board being made up of cells.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>No, Statement 1 does not logically follow from Statement 2. Statement 2 does not provide any information about the structure of the boards being used in the game.</t>
+          <t>No, Statement 1 cannot logically follow from Statement 2. The second statement does not provide information about each board being made up of cells.</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No, Statement 1 cannot be concluded based on Statement 2.</t>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. Statement 2 doesn't provide any information about cells and their connection with board games.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>No, Statement 2 does not support Statement 1.</t>
+          <t>Yes, Statement 2 does support Statement 1 as it implies that the game, being compared to a board game, likely has a segmented structure which could be considered made up of cells, similar to a traditional board game.</t>
         </is>
       </c>
     </row>
@@ -554,7 +554,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>No, Statement 1 cannot be inferred from Statement 2. The second statement talks about entry points depicted on a game board, but it does not infer that each board is made up of cells.</t>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>No, Statement 1 cannot be determined from Statement 2. The information provided in Statement 2 doesn't indicate whether the board is made up of cells.</t>
+          <t>No, Statement 1 cannot be determined from Statement 2.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -574,12 +574,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>No, Statement 1 does not logically follow from Statement 2.</t>
+          <t>No, Statement 1 cannot logically follow from Statement 2 because Statement 2 does not provide information about whether each board is made up of cells.</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>No, Statement 1 cannot be concluded based on Statement 2. The second statement talks about entry points and their graphical depiction on a game board, but it does not provide any information about each board being made up of cells.</t>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. Statement 2 does not provide information about boards being made up of cells.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -601,12 +601,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No, Statement 1 cannot be inferred from Statement 2. Statement 2 mentions a board and cells, but it does not provide direct information about the composition of every board.</t>
+          <t>No, Statement 1 cannot be inferred from Statement 2. Statement 2 mentions a board and cells, but it doesn't directly say that every board is made up of cells.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>No, Statement 1 cannot be implied from Statement 2. Statement 2 talks about a game play mechanic and doesn't provide information on the composition of the board.</t>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -621,17 +621,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>No, Statement 1 does not logically follow from Statement 2. Statement 2 does not provide any information about the composition of a board.</t>
+          <t>No, Statement 1 does not logically follow from Statement 2. Statement 2 provides information about a certain game scenario involving a player, a board, and a planet. Statement 1, however, is a general declaration about all boards being made up of cells and does not necessarily follow from the specific game situation laid out in Statement 2.</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>No, Statement 1 cannot be concluded based on Statement 2. Statement 2 makes no mention of all boards being made up of cells.</t>
+          <t>No, Statement 1 cannot be concluded based on Statement 2.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Yes, Statement 2 supports Statement 1 as it mentions a cell, which is part of the board as expressed in Statement 1.</t>
+          <t>Yes, statement 2 does support statement 1 as it implies that the board is made up of cells that a player can move between.</t>
         </is>
       </c>
     </row>
@@ -653,77 +653,30 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+          <t>No, Statement 1 cannot be implied from Statement 2. The two statements discuss completely different subjects.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>No, Statement 1 cannot be determined from Statement 2.</t>
+          <t>No, Statement 1 cannot be determined from Statement 2. They are about different topics.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>No, Statement 1 cannot be derived from Statement 2. They are talking about two different subjects and have no logical connection.</t>
+          <t>No, Statement 1 cannot be derived from Statement 2. The two statements discuss different topics and do not share any significant connection.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>No, Statement 1 cannot logically follow from Statement 2. The two statements are discussing different topics and are not logically connected.</t>
+          <t>No, Statement 1 cannot logically follow from Statement 2 as they talk about completely different features of a game – one is about the composition of the board, and the other about the impact of an incorrect hypothesis on a player's status in the game. The two statements have no logical connection.</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>No, Statement 1 cannot be concluded based on Statement 2. These two statements are about different topics; the first is about the composition of boards and the second is about the rules of a game.</t>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The two statements discuss different topics and do not relate to each other.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
-        <is>
-          <t>No, Statement 2 does not support Statement 1.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Each planet has between one and three predefined atmospheric entry points.</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Each planet is made up of one to three planets</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>No, Statement 1 cannot be inferred from Statement 2. The number of atmospheric entry points a planet has does not provide information about how many planets it is made up of.</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>No, Statement 1 cannot be implied from Statement 2. The content and subject matter of the two statements are different.</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>No, Statement 1 cannot be determined from Statement 2. The two statements are discussing different characteristics of planets. Statement 1 is suggesting a physical composition of planets, while Statement 2 is discussing potential entry points in a planet’s atmosphere. None of these statements provide information that would allow the determination of the other.</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>No, Statement 1 cannot be derived from Statement 2. The two statements discuss different aspects of planets. Statement 1 talks about the composition of planets, whereas Statement 2 discusses the number of entry points into a planet's atmosphere.</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>No, Statement 1 cannot logically follow from Statement 2. The first statement is about the composition of a planet while the second statement is about the properties of a planet's atmosphere. These are unrelated topics.</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>No, Statement 1 cannot be concluded based on Statement 2. The number of atmospheric entry points a planet has does not relate to how many planets it is made up of.</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
         <is>
           <t>No, Statement 2 does not support Statement 1.</t>
         </is>
